--- a/2020/May/All Details/14.05.2020/MC Balance Transfer May 2020.xlsx
+++ b/2020/May/All Details/14.05.2020/MC Balance Transfer May 2020.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="94">
   <si>
     <t>Date</t>
   </si>
@@ -249,9 +249,6 @@
     <t>B12+</t>
   </si>
   <si>
-    <t xml:space="preserve">SiS Commision </t>
-  </si>
-  <si>
     <t>Balance Statement May 2020</t>
   </si>
   <si>
@@ -282,10 +279,31 @@
     <t>11.05.2020</t>
   </si>
   <si>
-    <t>Natore</t>
+    <t>12.05.2020</t>
   </si>
   <si>
-    <t>12.05.2020</t>
+    <t>13.05.2020</t>
+  </si>
+  <si>
+    <t>14.05.2020</t>
+  </si>
+  <si>
+    <t>B12+T140</t>
+  </si>
+  <si>
+    <t>Kurier Forid</t>
+  </si>
+  <si>
+    <t>Shafi Mob</t>
+  </si>
+  <si>
+    <t>Satata</t>
+  </si>
+  <si>
+    <t>Mahi Tel</t>
+  </si>
+  <si>
+    <t>Dighi Telecom</t>
   </si>
 </sst>
 </file>
@@ -1438,9 +1456,9 @@
   <dimension ref="A1:BI231"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="E69" sqref="E69"/>
+      <selection pane="bottomLeft" activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1526,7 +1544,7 @@
     </row>
     <row r="2" spans="1:61" ht="15">
       <c r="A2" s="140" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="140"/>
       <c r="C2" s="140"/>
@@ -1790,7 +1808,7 @@
     </row>
     <row r="6" spans="1:61" ht="12.6" customHeight="1">
       <c r="A6" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="2">
         <v>319975</v>
@@ -1866,7 +1884,7 @@
     </row>
     <row r="7" spans="1:61" ht="12.6" customHeight="1">
       <c r="A7" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="2">
         <v>1097660</v>
@@ -1942,7 +1960,7 @@
     </row>
     <row r="8" spans="1:61" ht="12.6" customHeight="1">
       <c r="A8" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" s="2">
         <v>695855</v>
@@ -2018,7 +2036,7 @@
     </row>
     <row r="9" spans="1:61" ht="12" customHeight="1">
       <c r="A9" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="2">
         <v>454750</v>
@@ -2094,7 +2112,7 @@
     </row>
     <row r="10" spans="1:61" ht="12.6" customHeight="1">
       <c r="A10" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" s="2">
         <v>406110</v>
@@ -2170,7 +2188,7 @@
     </row>
     <row r="11" spans="1:61" ht="12.6" customHeight="1">
       <c r="A11" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" s="2">
         <v>945170</v>
@@ -2246,18 +2264,20 @@
     </row>
     <row r="12" spans="1:61" ht="12.6" customHeight="1">
       <c r="A12" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B12" s="2">
         <v>822500</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2">
+        <v>813350</v>
+      </c>
       <c r="D12" s="2">
         <v>1310</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="0"/>
-        <v>1310</v>
+        <v>814660</v>
       </c>
       <c r="F12" s="67"/>
       <c r="G12" s="38"/>
@@ -2319,13 +2339,21 @@
       <c r="BI12" s="7"/>
     </row>
     <row r="13" spans="1:61" ht="12.6" customHeight="1">
-      <c r="A13" s="14"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="A13" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="2">
+        <v>409245</v>
+      </c>
+      <c r="C13" s="2">
+        <v>420890</v>
+      </c>
+      <c r="D13" s="2">
+        <v>990</v>
+      </c>
       <c r="E13" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>421880</v>
       </c>
       <c r="F13" s="98"/>
       <c r="G13" s="17"/>
@@ -2387,13 +2415,21 @@
       <c r="BI13" s="7"/>
     </row>
     <row r="14" spans="1:61" ht="12.6" customHeight="1">
-      <c r="A14" s="14"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="A14" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="2">
+        <v>883070</v>
+      </c>
+      <c r="C14" s="2">
+        <v>820504</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1350</v>
+      </c>
       <c r="E14" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>821854</v>
       </c>
       <c r="F14" s="97"/>
       <c r="G14" s="17"/>
@@ -3682,23 +3718,23 @@
       </c>
       <c r="B33" s="2">
         <f>SUM(B5:B32)</f>
-        <v>4742020</v>
+        <v>6034335</v>
       </c>
       <c r="C33" s="2">
         <f>SUM(C5:C32)</f>
-        <v>3891785</v>
+        <v>5946529</v>
       </c>
       <c r="D33" s="2">
         <f>SUM(D5:D32)</f>
-        <v>10000</v>
+        <v>12340</v>
       </c>
       <c r="E33" s="2">
         <f>SUM(E5:E32)</f>
-        <v>3901785</v>
+        <v>5958869</v>
       </c>
       <c r="F33" s="67">
         <f>B33-E33</f>
-        <v>840235</v>
+        <v>75466</v>
       </c>
       <c r="G33" s="82"/>
       <c r="H33" s="87"/>
@@ -3899,11 +3935,11 @@
       </c>
       <c r="E36" s="115">
         <f>F33-C98+K121</f>
-        <v>813350</v>
+        <v>0</v>
       </c>
       <c r="F36" s="63">
         <f>F33-C98-I43-I42+K121-C103</f>
-        <v>-795266</v>
+        <v>0</v>
       </c>
       <c r="G36" s="82"/>
       <c r="H36" s="87"/>
@@ -4040,10 +4076,10 @@
         <v>24</v>
       </c>
       <c r="C38" s="2">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="67"/>
@@ -4397,9 +4433,7 @@
       <c r="D43" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E43" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="E43" s="6"/>
       <c r="F43" s="147" t="s">
         <v>14</v>
       </c>
@@ -4591,10 +4625,10 @@
       </c>
       <c r="B46" s="130"/>
       <c r="C46" s="131">
-        <v>171144</v>
+        <v>165350</v>
       </c>
       <c r="D46" s="130" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="110"/>
@@ -4654,10 +4688,16 @@
       <c r="BI46" s="7"/>
     </row>
     <row r="47" spans="1:61" ht="12.75" customHeight="1">
-      <c r="A47" s="132"/>
+      <c r="A47" s="132" t="s">
+        <v>93</v>
+      </c>
       <c r="B47" s="70"/>
-      <c r="C47" s="71"/>
-      <c r="D47" s="72"/>
+      <c r="C47" s="71">
+        <v>100000</v>
+      </c>
+      <c r="D47" s="72" t="s">
+        <v>87</v>
+      </c>
       <c r="E47" s="3"/>
       <c r="F47" s="110"/>
       <c r="G47" s="110"/>
@@ -4721,10 +4761,10 @@
       </c>
       <c r="B48" s="70"/>
       <c r="C48" s="71">
-        <v>306950</v>
+        <v>294808</v>
       </c>
       <c r="D48" s="130" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="110"/>
@@ -4919,7 +4959,7 @@
       </c>
       <c r="B51" s="30"/>
       <c r="C51" s="71">
-        <v>361135</v>
+        <v>338491</v>
       </c>
       <c r="D51" s="72" t="s">
         <v>87</v>
@@ -4988,10 +5028,10 @@
       </c>
       <c r="B52" s="30"/>
       <c r="C52" s="71">
-        <v>193235</v>
+        <v>194200</v>
       </c>
       <c r="D52" s="130" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="110"/>
@@ -5261,10 +5301,16 @@
       <c r="BI55" s="7"/>
     </row>
     <row r="56" spans="1:61" ht="12" customHeight="1">
-      <c r="A56" s="73"/>
+      <c r="A56" s="73" t="s">
+        <v>91</v>
+      </c>
       <c r="B56" s="30"/>
-      <c r="C56" s="71"/>
-      <c r="D56" s="70"/>
+      <c r="C56" s="71">
+        <v>4045</v>
+      </c>
+      <c r="D56" s="70" t="s">
+        <v>87</v>
+      </c>
       <c r="E56" s="3"/>
       <c r="F56" s="30"/>
       <c r="G56" s="110"/>
@@ -5329,10 +5375,10 @@
       </c>
       <c r="B57" s="30"/>
       <c r="C57" s="71">
-        <v>6500</v>
+        <v>2400</v>
       </c>
       <c r="D57" s="76" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="30"/>
@@ -5536,7 +5582,7 @@
       </c>
       <c r="B60" s="30"/>
       <c r="C60" s="71">
-        <v>236000</v>
+        <v>222661</v>
       </c>
       <c r="D60" s="72" t="s">
         <v>66</v>
@@ -5671,10 +5717,16 @@
       <c r="BI61" s="7"/>
     </row>
     <row r="62" spans="1:61" ht="12.75" customHeight="1">
-      <c r="A62" s="73"/>
+      <c r="A62" s="73" t="s">
+        <v>90</v>
+      </c>
       <c r="B62" s="30"/>
-      <c r="C62" s="71"/>
-      <c r="D62" s="72"/>
+      <c r="C62" s="71">
+        <v>5000</v>
+      </c>
+      <c r="D62" s="72" t="s">
+        <v>87</v>
+      </c>
       <c r="E62" s="8"/>
       <c r="F62" s="146" t="s">
         <v>69</v>
@@ -5743,11 +5795,11 @@
     </row>
     <row r="63" spans="1:61" ht="12.75" customHeight="1">
       <c r="A63" s="73" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B63" s="30"/>
       <c r="C63" s="71">
-        <v>6500</v>
+        <v>500</v>
       </c>
       <c r="D63" s="72" t="s">
         <v>87</v>
@@ -5912,13 +5964,13 @@
         <v>73</v>
       </c>
       <c r="B65" s="30" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C65" s="71">
-        <v>1560</v>
+        <v>2150</v>
       </c>
       <c r="D65" s="72" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="48"/>
@@ -5992,10 +6044,16 @@
       <c r="BI65" s="7"/>
     </row>
     <row r="66" spans="1:61" ht="12.75" customHeight="1">
-      <c r="A66" s="73"/>
+      <c r="A66" s="73" t="s">
+        <v>92</v>
+      </c>
       <c r="B66" s="30"/>
-      <c r="C66" s="71"/>
-      <c r="D66" s="72"/>
+      <c r="C66" s="71">
+        <v>500</v>
+      </c>
+      <c r="D66" s="72" t="s">
+        <v>87</v>
+      </c>
       <c r="E66" s="3"/>
       <c r="F66" s="111"/>
       <c r="G66" s="13" t="s">
@@ -6069,14 +6127,14 @@
     </row>
     <row r="67" spans="1:61" ht="12.75" customHeight="1">
       <c r="A67" s="136" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B67" s="47"/>
       <c r="C67" s="137">
         <v>13000</v>
       </c>
       <c r="D67" s="138" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="48"/>
@@ -6301,14 +6359,14 @@
     </row>
     <row r="70" spans="1:61" ht="12.75" customHeight="1">
       <c r="A70" s="73" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B70" s="30"/>
       <c r="C70" s="71">
         <v>740</v>
       </c>
       <c r="D70" s="76" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="111"/>
@@ -7978,7 +8036,7 @@
     </row>
     <row r="93" spans="1:61" ht="14.25" customHeight="1">
       <c r="A93" s="73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B93" s="77"/>
       <c r="C93" s="71">
@@ -8368,7 +8426,7 @@
       <c r="B98" s="145"/>
       <c r="C98" s="32">
         <f>SUM(C37:C97)</f>
-        <v>1652919</v>
+        <v>1701500</v>
       </c>
       <c r="D98" s="28"/>
       <c r="F98" s="111"/>
@@ -8503,7 +8561,7 @@
       <c r="B100" s="143"/>
       <c r="C100" s="29">
         <f>C98+L121</f>
-        <v>1652919</v>
+        <v>1701500</v>
       </c>
       <c r="D100" s="21"/>
       <c r="F100" s="48"/>
@@ -8632,13 +8690,8 @@
       <c r="BI101" s="7"/>
     </row>
     <row r="102" spans="1:61">
-      <c r="A102" s="44" t="s">
-        <v>75</v>
-      </c>
+      <c r="A102" s="44"/>
       <c r="B102" s="7"/>
-      <c r="C102" s="4">
-        <v>44303</v>
-      </c>
       <c r="D102" s="45"/>
       <c r="F102" s="111"/>
       <c r="G102" s="13"/>
@@ -8703,10 +8756,7 @@
     <row r="103" spans="1:61">
       <c r="A103" s="46"/>
       <c r="B103" s="46"/>
-      <c r="C103" s="45">
-        <f>C100-C102</f>
-        <v>1608616</v>
-      </c>
+      <c r="C103" s="45"/>
       <c r="D103" s="7"/>
       <c r="F103" s="111"/>
       <c r="G103" s="13"/>
